--- a/NRI_STLF_Data/WeatherData/T_zanjan/T_zanjan95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_zanjan/T_zanjan95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_zanjan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_zanjan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -263,12 +263,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -602,13 +602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -685,7 +685,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -765,7 +765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -842,7 +842,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -919,7 +919,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -996,7 +996,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -13088,8 +13088,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>36</v>
+      </c>
+      <c r="G161">
+        <v>25</v>
+      </c>
+      <c r="H161">
+        <v>14</v>
+      </c>
+      <c r="I161">
+        <v>11</v>
+      </c>
+      <c r="J161">
+        <v>6</v>
+      </c>
+      <c r="K161">
+        <v>4</v>
+      </c>
+      <c r="L161">
+        <v>42</v>
+      </c>
+      <c r="M161">
+        <v>23</v>
+      </c>
+      <c r="N161">
+        <v>11</v>
+      </c>
+      <c r="O161">
+        <v>1022</v>
+      </c>
+      <c r="P161">
+        <v>1016</v>
+      </c>
+      <c r="Q161">
+        <v>1006</v>
+      </c>
+      <c r="R161">
+        <v>10</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
+      </c>
+      <c r="U161">
+        <v>26</v>
+      </c>
+      <c r="V161">
+        <v>6</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -13105,8 +13165,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>37</v>
+      </c>
+      <c r="G162">
+        <v>28</v>
+      </c>
+      <c r="H162">
+        <v>18</v>
+      </c>
+      <c r="I162">
+        <v>12</v>
+      </c>
+      <c r="J162">
+        <v>7</v>
+      </c>
+      <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162">
+        <v>38</v>
+      </c>
+      <c r="M162">
+        <v>22</v>
+      </c>
+      <c r="N162">
+        <v>11</v>
+      </c>
+      <c r="O162">
+        <v>1022</v>
+      </c>
+      <c r="P162">
+        <v>1015</v>
+      </c>
+      <c r="Q162">
+        <v>1007</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>10</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>10</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>4</v>
+      </c>
+      <c r="AA162">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -13122,8 +13242,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>36</v>
+      </c>
+      <c r="G163">
+        <v>27</v>
+      </c>
+      <c r="H163">
+        <v>17</v>
+      </c>
+      <c r="I163">
+        <v>11</v>
+      </c>
+      <c r="J163">
+        <v>7</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>36</v>
+      </c>
+      <c r="M163">
+        <v>22</v>
+      </c>
+      <c r="N163">
+        <v>11</v>
+      </c>
+      <c r="O163">
+        <v>1020</v>
+      </c>
+      <c r="P163">
+        <v>1014</v>
+      </c>
+      <c r="Q163">
+        <v>1004</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>23</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>2</v>
+      </c>
+      <c r="AA163">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13139,8 +13319,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>37</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+      <c r="H164">
+        <v>16</v>
+      </c>
+      <c r="I164">
+        <v>13</v>
+      </c>
+      <c r="J164">
+        <v>8</v>
+      </c>
+      <c r="K164">
+        <v>4</v>
+      </c>
+      <c r="L164">
+        <v>40</v>
+      </c>
+      <c r="M164">
+        <v>25</v>
+      </c>
+      <c r="N164">
+        <v>11</v>
+      </c>
+      <c r="O164">
+        <v>1020</v>
+      </c>
+      <c r="P164">
+        <v>1013</v>
+      </c>
+      <c r="Q164">
+        <v>1003</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>29</v>
+      </c>
+      <c r="V164">
+        <v>8</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>5</v>
+      </c>
+      <c r="AA164">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13156,8 +13396,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>36</v>
+      </c>
+      <c r="G165">
+        <v>26</v>
+      </c>
+      <c r="H165">
+        <v>15</v>
+      </c>
+      <c r="I165">
+        <v>11</v>
+      </c>
+      <c r="J165">
+        <v>6</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>31</v>
+      </c>
+      <c r="M165">
+        <v>20</v>
+      </c>
+      <c r="N165">
+        <v>11</v>
+      </c>
+      <c r="O165">
+        <v>1017</v>
+      </c>
+      <c r="P165">
+        <v>1011</v>
+      </c>
+      <c r="Q165">
+        <v>1001</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>19</v>
+      </c>
+      <c r="V165">
+        <v>8</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>4</v>
+      </c>
+      <c r="AA165">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13173,8 +13473,71 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>36</v>
+      </c>
+      <c r="G166">
+        <v>27</v>
+      </c>
+      <c r="H166">
+        <v>18</v>
+      </c>
+      <c r="I166">
+        <v>11</v>
+      </c>
+      <c r="J166">
+        <v>7</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>38</v>
+      </c>
+      <c r="M166">
+        <v>23</v>
+      </c>
+      <c r="N166">
+        <v>14</v>
+      </c>
+      <c r="O166">
+        <v>1014</v>
+      </c>
+      <c r="P166">
+        <v>1008</v>
+      </c>
+      <c r="Q166">
+        <v>999</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>8</v>
+      </c>
+      <c r="U166">
+        <v>35</v>
+      </c>
+      <c r="V166">
+        <v>10</v>
+      </c>
+      <c r="W166">
+        <v>50</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>4</v>
+      </c>
+      <c r="AA166">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13190,8 +13553,68 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>32</v>
+      </c>
+      <c r="G167">
+        <v>24</v>
+      </c>
+      <c r="H167">
+        <v>16</v>
+      </c>
+      <c r="I167">
+        <v>13</v>
+      </c>
+      <c r="J167">
+        <v>11</v>
+      </c>
+      <c r="K167">
+        <v>7</v>
+      </c>
+      <c r="L167">
+        <v>64</v>
+      </c>
+      <c r="M167">
+        <v>39</v>
+      </c>
+      <c r="N167">
+        <v>25</v>
+      </c>
+      <c r="O167">
+        <v>1015</v>
+      </c>
+      <c r="P167">
+        <v>1009</v>
+      </c>
+      <c r="Q167">
+        <v>1000</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>10</v>
+      </c>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="U167">
+        <v>42</v>
+      </c>
+      <c r="V167">
+        <v>18</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13207,8 +13630,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>33</v>
+      </c>
+      <c r="G168">
+        <v>23</v>
+      </c>
+      <c r="H168">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13224,8 +13656,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169">
+        <v>25</v>
+      </c>
+      <c r="H169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13241,8 +13682,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>31</v>
+      </c>
+      <c r="G170">
+        <v>22</v>
+      </c>
+      <c r="H170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13258,8 +13708,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>31</v>
+      </c>
+      <c r="G171">
+        <v>22</v>
+      </c>
+      <c r="H171">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13275,8 +13734,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>23</v>
+      </c>
+      <c r="G172">
+        <v>17</v>
+      </c>
+      <c r="H172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13292,8 +13760,17 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173">
+        <v>16</v>
+      </c>
+      <c r="H173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13310,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13327,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13344,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13361,7 +13838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13378,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13395,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13412,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13429,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13446,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13463,7 +13940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13480,7 +13957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13497,7 +13974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13514,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13531,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13548,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13565,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13582,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13599,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13616,7 +14093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13633,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13650,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13667,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13684,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13701,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13718,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13735,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13752,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13769,7 +14246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13786,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13803,7 +14280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13820,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13837,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13854,7 +14331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13871,7 +14348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13888,7 +14365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13905,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13922,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13939,7 +14416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13956,7 +14433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13973,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13990,7 +14467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -14007,7 +14484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -14024,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -14041,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -14058,7 +14535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -14075,7 +14552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -14092,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -14109,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14126,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14143,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14160,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14177,7 +14654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14194,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14211,7 +14688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14228,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14245,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14262,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14279,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14296,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14313,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14330,7 +14807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14347,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14364,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14381,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14398,7 +14875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14415,7 +14892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14432,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14449,7 +14926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14466,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14483,7 +14960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14500,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14517,7 +14994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14534,7 +15011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14551,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14568,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14585,7 +15062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14602,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14619,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14636,7 +15113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14653,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14670,7 +15147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14687,7 +15164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14704,7 +15181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14721,7 +15198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14738,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14755,7 +15232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14772,7 +15249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14789,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14806,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14823,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14840,7 +15317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14857,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14874,7 +15351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14891,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14908,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14925,7 +15402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14942,7 +15419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14959,7 +15436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14976,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14993,7 +15470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -15010,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -15027,7 +15504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -15044,7 +15521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -15061,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -15078,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -15095,7 +15572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -15112,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15129,7 +15606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15146,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15163,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15180,7 +15657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15197,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15214,7 +15691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15231,7 +15708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15248,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15265,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15282,7 +15759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15299,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15316,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15333,7 +15810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15350,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15367,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15384,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15401,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15418,7 +15895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15435,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15452,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15469,7 +15946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15486,7 +15963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15503,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15520,7 +15997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15537,7 +16014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15554,7 +16031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15571,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15588,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15605,7 +16082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15622,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15639,7 +16116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15656,7 +16133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15673,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15690,7 +16167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15707,7 +16184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15724,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15741,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15758,7 +16235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15775,7 +16252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15792,7 +16269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15809,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15826,7 +16303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15843,7 +16320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15860,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15877,7 +16354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15894,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15911,7 +16388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15928,7 +16405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15945,7 +16422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15962,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15979,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15996,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -16013,7 +16490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -16030,7 +16507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -16047,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -16064,7 +16541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -16081,7 +16558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -16098,7 +16575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -16115,7 +16592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16132,7 +16609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16149,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16166,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16183,7 +16660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16200,7 +16677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16217,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16234,7 +16711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16251,7 +16728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16268,7 +16745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16285,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16302,7 +16779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16319,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16336,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16353,7 +16830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16370,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16387,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16404,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16421,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16438,7 +16915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16455,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16472,7 +16949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16489,7 +16966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16506,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16523,7 +17000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16540,7 +17017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16557,7 +17034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16585,7 +17062,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16597,7 +17074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
